--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>858865.6781326327</v>
+        <v>862010.1842749009</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238721</v>
+        <v>1667317.432543015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461767</v>
+        <v>7966425.477977804</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7478535.716676523</v>
+        <v>7943893.718553924</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>1.878220396484567</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -722,7 +724,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>169.0133141932866</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -899,13 +901,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>364.0457092032245</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>256.7115579699417</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -1057,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>19.85905444009093</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1145,7 +1147,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>229.2671475085639</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>316.5487336740566</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>113.1667354347866</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1348,7 +1350,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>285.8222677061726</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1531,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>197.8422002085939</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>66.68447052885355</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>393.0498909579824</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>66.68447052885355</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>224.4830003349309</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>160.7823747629879</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>177.22628008815</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -2147,7 +2149,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2242,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>146.0154670505622</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>177.7856699752783</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>271.0493447549837</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2561,7 +2563,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>39.94312400466668</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -2615,13 +2617,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>190.8841179244016</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>165.8714844395198</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>72.30123682228013</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>254.5440187867115</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>222.7262360663264</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
@@ -2852,13 +2854,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
-        <v>194.9632162960284</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3044,7 +3046,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y32" t="n">
-        <v>304.8063793681601</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>20.91946317727882</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>194.9632162960288</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -3275,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>198.9914102195233</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>108.8247535352256</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -3332,7 +3334,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>32.11774844572039</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>72.30123682227976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>326.8694276343761</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3569,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>30.44862458271852</v>
       </c>
     </row>
     <row r="39">
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>175.6983641828944</v>
+        <v>159.3149947016328</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>267.1933947908267</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>302.1480073738684</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -3806,7 +3808,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3898,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>175.6983641828944</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>271.0092307840453</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>289.1043232126787</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>159.3149947016333</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>464.2074085715658</v>
+        <v>779.3776796346942</v>
       </c>
       <c r="C2" t="n">
-        <v>464.2074085715658</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="D2" t="n">
-        <v>464.2074085715658</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E2" t="n">
-        <v>464.2074085715658</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L2" t="n">
-        <v>550.9450990378335</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415868</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.42141205333</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U2" t="n">
-        <v>2363.751312757499</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V2" t="n">
-        <v>2021.644503461017</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W2" t="n">
-        <v>1650.645468429305</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X2" t="n">
-        <v>1261.192863362362</v>
+        <v>1576.36313442549</v>
       </c>
       <c r="Y2" t="n">
-        <v>864.7021542829627</v>
+        <v>1179.872425346091</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016675</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231478</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340356</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171674</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890318</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963275</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154434</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154434</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154434</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L3" t="n">
-        <v>530.8790559998575</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M3" t="n">
-        <v>1116.37706100646</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N3" t="n">
-        <v>1701.875066013062</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M4" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N4" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O4" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P4" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.2114101877287</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C5" t="n">
-        <v>415.0359086906593</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D5" t="n">
-        <v>415.0359086906593</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154361</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W5" t="n">
-        <v>1994.649470045468</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X5" t="n">
-        <v>1605.196864978524</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y5" t="n">
-        <v>1208.706155899126</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>160.4279523212711</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834975</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>963.7331842818107</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.141762214911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805892</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.28341352229</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C7" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D7" t="n">
-        <v>386.3238676264566</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E7" t="n">
-        <v>386.3238676264566</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F7" t="n">
-        <v>386.3238676264566</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K7" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M7" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N7" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O7" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P7" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q7" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V7" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W7" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X7" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1645.407563735423</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C8" t="n">
-        <v>1252.232062238354</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D8" t="n">
-        <v>866.7909334550213</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E8" t="n">
-        <v>464.2074085715658</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.90230944682</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K10" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M10" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N10" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O10" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P10" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q10" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S10" t="n">
-        <v>834.4501588705843</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T10" t="n">
-        <v>598.7311070388184</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U10" t="n">
-        <v>313.2923152807194</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1568.663050286385</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C11" t="n">
-        <v>1279.953688967018</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D11" t="n">
-        <v>1279.953688967018</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E11" t="n">
-        <v>877.3701640835627</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F11" t="n">
-        <v>460.4757256135405</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>191.9627430103717</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
-        <v>685.2830347289006</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
-        <v>1231.283934773481</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>1577.42141205333</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.64850507718</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y11" t="n">
-        <v>1969.157795997781</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>160.427952321271</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>480.1670983834974</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>858.0088487631986</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1443.506853769801</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769801</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360782</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X12" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K13" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M13" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N13" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O13" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P13" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q13" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2327.655591362702</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C14" t="n">
-        <v>2127.814985091395</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D14" t="n">
-        <v>1742.373856308063</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E14" t="n">
-        <v>1339.790331424607</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F14" t="n">
-        <v>922.895892954585</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G14" t="n">
-        <v>509.7331374425881</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>185.6500870090788</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>318.7636682303387</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749193</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.575851912381</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.61545280471</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>2327.655591362702</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>2327.655591362702</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T14" t="n">
-        <v>2327.655591362702</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U14" t="n">
-        <v>2327.655591362702</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V14" t="n">
-        <v>2327.655591362702</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W14" t="n">
-        <v>2327.655591362702</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X14" t="n">
-        <v>2327.655591362702</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y14" t="n">
-        <v>2327.655591362702</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>160.427952321271</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>480.1670983834974</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>963.7331842818107</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>963.7331842818107</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769801</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X15" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M16" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N16" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O16" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P16" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q16" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.31297010154361</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712875</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2199.134950018231</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>2199.134950018231</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U17" t="n">
-        <v>1943.38222045283</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V17" t="n">
-        <v>1601.275411156348</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W17" t="n">
-        <v>1230.276376124636</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X17" t="n">
-        <v>840.8237710576924</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y17" t="n">
-        <v>444.3330619782935</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1029.265125924707</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1614.763130931309</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>2131.28341352229</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.28341352229</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>215.5670240020981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>215.5670240020981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>215.5670240020981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>215.5670240020981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>215.5670240020981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U19" t="n">
-        <v>722.009487254277</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V19" t="n">
-        <v>722.009487254277</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W19" t="n">
-        <v>438.6790851854547</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="X19" t="n">
-        <v>438.6790851854547</v>
+        <v>180.1760807806529</v>
       </c>
       <c r="Y19" t="n">
-        <v>215.5670240020981</v>
+        <v>180.1760807806529</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>771.6433069209571</v>
+        <v>1517.002928181713</v>
       </c>
       <c r="C20" t="n">
-        <v>771.6433069209571</v>
+        <v>1517.002928181713</v>
       </c>
       <c r="D20" t="n">
-        <v>386.2021781376249</v>
+        <v>1517.002928181713</v>
       </c>
       <c r="E20" t="n">
-        <v>386.2021781376249</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F20" t="n">
-        <v>386.2021781376249</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T20" t="n">
-        <v>2926.939940672291</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U20" t="n">
-        <v>2671.18721110689</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V20" t="n">
-        <v>2329.080401810409</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W20" t="n">
-        <v>1958.081366778696</v>
+        <v>2306.950278960053</v>
       </c>
       <c r="X20" t="n">
-        <v>1568.628761711753</v>
+        <v>1917.49767389311</v>
       </c>
       <c r="Y20" t="n">
-        <v>1172.138052632354</v>
+        <v>1917.49767389311</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5840,7 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
         <v>1458.313011372373</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>522.4942453900837</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>366.9354332492862</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>209.6094984622592</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
         <v>62.11912770411553</v>
@@ -5935,25 +5937,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U22" t="n">
-        <v>678.1273584875689</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="V22" t="n">
-        <v>678.1273584875689</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="W22" t="n">
-        <v>678.1273584875689</v>
+        <v>241.7006125276289</v>
       </c>
       <c r="X22" t="n">
-        <v>678.1273584875689</v>
+        <v>241.7006125276289</v>
       </c>
       <c r="Y22" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1517.106499792199</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C23" t="n">
-        <v>1123.930998295129</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D23" t="n">
-        <v>738.489869511797</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>335.9063446283415</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
         <v>62.11912770411553</v>
@@ -6011,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T23" t="n">
-        <v>2882.455782765193</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U23" t="n">
-        <v>2626.703053199792</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V23" t="n">
-        <v>2284.59624390331</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W23" t="n">
-        <v>1913.597208871598</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X23" t="n">
-        <v>1913.597208871598</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y23" t="n">
-        <v>1517.106499792199</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>1305.886481777555</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1933.658131404236</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>2589.436102614795</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>869.0961595639906</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>698.8910416299798</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>387.699116391697</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G25" t="n">
         <v>62.11912770411553</v>
@@ -6169,28 +6171,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V25" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W25" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X25" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1243.319282867973</v>
+        <v>1164.818808418026</v>
       </c>
       <c r="C26" t="n">
-        <v>850.1437813709033</v>
+        <v>771.6433069209571</v>
       </c>
       <c r="D26" t="n">
-        <v>464.702652587571</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E26" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H26" t="n">
         <v>62.11912770411553</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T26" t="n">
-        <v>3027.616881587594</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U26" t="n">
-        <v>2771.864152022193</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V26" t="n">
-        <v>2429.757342725712</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W26" t="n">
-        <v>2429.757342725712</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X26" t="n">
-        <v>2040.304737658769</v>
+        <v>1357.631048745705</v>
       </c>
       <c r="Y26" t="n">
-        <v>1643.81402857937</v>
+        <v>1164.818808418026</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6311,13 @@
         <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>830.5413617456916</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O27" t="n">
         <v>1974.833293963354</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2277.540915009961</v>
+        <v>555.24607037101</v>
       </c>
       <c r="C28" t="n">
-        <v>2277.540915009961</v>
+        <v>387.699116391697</v>
       </c>
       <c r="D28" t="n">
-        <v>2277.540915009961</v>
+        <v>387.699116391697</v>
       </c>
       <c r="E28" t="n">
-        <v>2277.540915009961</v>
+        <v>387.699116391697</v>
       </c>
       <c r="F28" t="n">
-        <v>2277.540915009961</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G28" t="n">
-        <v>2277.540915009961</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>2779.239312020903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>2543.520260189137</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>2543.520260189137</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V28" t="n">
-        <v>2277.540915009961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W28" t="n">
-        <v>2277.540915009961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X28" t="n">
-        <v>2277.540915009961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y28" t="n">
-        <v>2277.540915009961</v>
+        <v>740.4540890623113</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1117.152317712727</v>
+        <v>1656.48203837997</v>
       </c>
       <c r="C29" t="n">
-        <v>1117.152317712727</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="D29" t="n">
-        <v>1117.152317712727</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E29" t="n">
-        <v>1117.152317712727</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F29" t="n">
-        <v>700.2578792427047</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>287.0951237307078</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
         <v>62.11912770411553</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2901.449916432349</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U29" t="n">
-        <v>2645.697186866948</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V29" t="n">
-        <v>2303.590377570466</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W29" t="n">
-        <v>2303.590377570466</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X29" t="n">
-        <v>1914.137772503523</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="Y29" t="n">
-        <v>1517.647063424124</v>
+        <v>1913.597208871598</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>96.81867335321709</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L30" t="n">
-        <v>580.3847592515303</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N30" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O30" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6646,16 +6648,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>525.0310145964513</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U31" t="n">
-        <v>328.0984728832913</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V31" t="n">
-        <v>62.11912770411553</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
         <v>62.11912770411553</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1216.259372119644</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C32" t="n">
-        <v>1216.259372119644</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D32" t="n">
-        <v>1216.259372119644</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E32" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F32" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G32" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H32" t="n">
         <v>62.11912770411553</v>
@@ -6728,22 +6730,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>2626.703053199792</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V32" t="n">
-        <v>2284.59624390331</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W32" t="n">
-        <v>1913.597208871598</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X32" t="n">
-        <v>1524.144603804654</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y32" t="n">
-        <v>1216.259372119644</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C33" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D33" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E33" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F33" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G33" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H33" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>1271.186936128453</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1898.958585755135</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>2183.814733898398</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O33" t="n">
-        <v>2700.335016489379</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P33" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R33" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S33" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T33" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U33" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V33" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W33" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X33" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y33" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>697.5868050664922</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3816871324814</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3816871324814</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E34" t="n">
-        <v>371.8228749916839</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F34" t="n">
-        <v>371.8228749916839</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G34" t="n">
-        <v>350.6921041055436</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H34" t="n">
-        <v>195.2135530670377</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N34" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O34" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P34" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S34" t="n">
-        <v>963.5661502456679</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="T34" t="n">
-        <v>963.5661502456679</v>
+        <v>2667.42124955656</v>
       </c>
       <c r="U34" t="n">
-        <v>963.5661502456679</v>
+        <v>2470.488707843399</v>
       </c>
       <c r="V34" t="n">
-        <v>697.5868050664922</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="W34" t="n">
-        <v>697.5868050664922</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="X34" t="n">
-        <v>697.5868050664922</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y34" t="n">
-        <v>697.5868050664922</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.7357579845172</v>
+        <v>1524.144603804654</v>
       </c>
       <c r="C35" t="n">
-        <v>447.5602564874478</v>
+        <v>1524.144603804654</v>
       </c>
       <c r="D35" t="n">
-        <v>62.11912770411553</v>
+        <v>1138.703475021322</v>
       </c>
       <c r="E35" t="n">
-        <v>62.11912770411553</v>
+        <v>1138.703475021322</v>
       </c>
       <c r="F35" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,22 +6967,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2996.032391735851</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U35" t="n">
-        <v>2740.27966217045</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V35" t="n">
-        <v>2398.172852873969</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W35" t="n">
-        <v>2027.173817842256</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X35" t="n">
-        <v>1637.721212775313</v>
+        <v>1524.144603804654</v>
       </c>
       <c r="Y35" t="n">
-        <v>1241.230503695914</v>
+        <v>1524.144603804654</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.11912770411553</v>
+        <v>729.485828028651</v>
       </c>
       <c r="C37" t="n">
-        <v>62.11912770411553</v>
+        <v>729.485828028651</v>
       </c>
       <c r="D37" t="n">
-        <v>62.11912770411553</v>
+        <v>573.8527149311658</v>
       </c>
       <c r="E37" t="n">
-        <v>62.11912770411553</v>
+        <v>418.2939027903683</v>
       </c>
       <c r="F37" t="n">
-        <v>62.11912770411553</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H37" t="n">
         <v>62.11912770411553</v>
@@ -7117,28 +7119,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V37" t="n">
-        <v>135.1506800498527</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W37" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X37" t="n">
-        <v>62.11912770411553</v>
+        <v>729.485828028651</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.11912770411553</v>
+        <v>729.485828028651</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1618.8428970031</v>
+        <v>1326.874862298514</v>
       </c>
       <c r="C38" t="n">
-        <v>1618.8428970031</v>
+        <v>1326.874862298514</v>
       </c>
       <c r="D38" t="n">
-        <v>1618.8428970031</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="E38" t="n">
-        <v>1216.259372119644</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F38" t="n">
-        <v>799.3649336496217</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,25 +7201,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T38" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U38" t="n">
-        <v>3105.956385205776</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V38" t="n">
-        <v>2775.785246181154</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W38" t="n">
-        <v>2404.786211149441</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X38" t="n">
-        <v>2015.333606082498</v>
+        <v>1357.631048745705</v>
       </c>
       <c r="Y38" t="n">
-        <v>1618.8428970031</v>
+        <v>1326.874862298514</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7259,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S40" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T40" t="n">
-        <v>525.0310145964513</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U40" t="n">
-        <v>239.5922228383523</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V40" t="n">
-        <v>62.11912770411553</v>
+        <v>2945.03214813342</v>
       </c>
       <c r="W40" t="n">
-        <v>62.11912770411553</v>
+        <v>2661.701746064598</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411553</v>
+        <v>2427.62142384758</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1548.519290316325</v>
+        <v>1486.151690090176</v>
       </c>
       <c r="C41" t="n">
-        <v>1155.343788819255</v>
+        <v>1486.151690090176</v>
       </c>
       <c r="D41" t="n">
-        <v>769.902660035923</v>
+        <v>1486.151690090176</v>
       </c>
       <c r="E41" t="n">
-        <v>367.3191351524675</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F41" t="n">
-        <v>367.3191351524675</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G41" t="n">
-        <v>367.3191351524675</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="V41" t="n">
-        <v>3105.956385205776</v>
+        <v>2246.603330188832</v>
       </c>
       <c r="W41" t="n">
-        <v>2734.957350174064</v>
+        <v>1875.604295157119</v>
       </c>
       <c r="X41" t="n">
-        <v>2345.50474510712</v>
+        <v>1486.151690090176</v>
       </c>
       <c r="Y41" t="n">
-        <v>1949.014036027722</v>
+        <v>1486.151690090176</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>2262.088962721623</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>854.3695926684857</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>698.7364795710005</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411553</v>
+        <v>543.177667430203</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H43" t="n">
         <v>62.11912770411553</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>525.0310145964513</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V43" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1673.129190464088</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C44" t="n">
-        <v>1279.953688967018</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.953688967018</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>752.7602639357997</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>335.8658254657774</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154361</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>503.6092283712875</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1049.610128415868</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1577.42141205333</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2017.461012945658</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>2365.64850507718</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X44" t="n">
-        <v>2365.64850507718</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y44" t="n">
-        <v>2073.623936175485</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154361</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>530.8790559998569</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>858.0088487631986</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.506853769801</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1960.027136360782</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645569</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519369</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857633</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888842</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.350142930551</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707129</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.64850507718</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.64850507718</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.64850507718</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>2365.64850507718</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U46" t="n">
-        <v>2365.64850507718</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V46" t="n">
-        <v>2365.64850507718</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W46" t="n">
-        <v>2082.318103008358</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
-        <v>1848.237780791341</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>1625.125719607984</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7984,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>653.4271014745298</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -7997,7 +7999,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,13 +8066,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O3" t="n">
-        <v>116.714810194778</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8228,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,7 +8297,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
@@ -8304,7 +8306,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>333.2595653118437</v>
+        <v>656.2283997181323</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8459,7 +8461,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>155.1237765063188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,7 +8692,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8699,7 +8701,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>498.7523067719748</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8708,7 +8710,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>471.718680573788</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>320.902235706038</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8924,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -9003,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>569.9919810238536</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9182,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>272.8385602943859</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,10 +9488,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796062</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9957,16 +9959,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>543.2755872400996</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10191,7 +10193,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>124.646981443537</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10200,13 +10202,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10425,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10437,13 +10439,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271601</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10662,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
@@ -10674,7 +10676,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,7 +10907,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11136,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11151,13 +11153,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>212.2488719779076</v>
+        <v>412.7428484698906</v>
       </c>
       <c r="P42" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11315,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>422.8212561536975</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -22556,13 +22558,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22595,13 +22597,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3169818732628</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>216.5447648229871</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,7 +22710,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22787,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>34.51198043139641</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -22844,7 +22846,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>110.5774867114537</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22945,16 +22947,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>146.712458921458</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -23024,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23081,13 +23083,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>138.0218971728315</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>75.97706831454826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>87.62118754448949</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>103.4214787759261</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>191.4015462735047</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.439907296300532</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>314.9022469666454</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>66.47955495861629</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23902,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23944,19 +23946,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>58.1014035055872</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23972,22 +23974,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>237.775314871633</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>44.03931632802744</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24130,16 +24132,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>20.55604631098669</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24175,25 +24177,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>43.0952705962448</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>141.6761493303383</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>89.83064772952768</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>227.4607133389885</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -24458,7 +24460,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>181.3224724115108</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>201.6416840642033</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>2.631582315150865</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24610,13 +24612,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>81.62252870584082</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -24667,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>141.9457794675714</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>98.11598386284788</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24740,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24886,19 +24888,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
-        <v>87.62118754448963</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24968,22 +24970,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.71942262044479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,25 +25077,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>145.6520501842701</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25123,13 +25125,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>87.62118754448929</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,16 +25165,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>213.7340838657987</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25207,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>112.4408428809519</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25315,19 +25317,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>123.6349269934364</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>208.1958612258544</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25394,22 +25396,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>11.81631356914068</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>362.0771774058863</v>
       </c>
     </row>
     <row r="39">
@@ -25597,25 +25599,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>87.62118754448966</v>
+        <v>104.0045570257512</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>131.3642948437941</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>18.69421255530585</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25673,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25786,22 +25788,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>60.39847475326023</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25834,13 +25836,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25849,7 +25851,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>56.04115481195237</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>138.0218971728315</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25925,13 +25927,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>103.4214787759262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.04094380275501</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26074,22 +26076,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>609819.6535453052</v>
+        <v>687002.4444969255</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>609819.6535453052</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>609819.6535453055</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609819.653545305</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609819.6535453055</v>
+        <v>687002.4444969255</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>609819.6535453055</v>
+        <v>687002.4444969255</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687002.4444969255</v>
+        <v>687002.444496925</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>687002.4444969255</v>
+        <v>687002.4444969256</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>687002.4444969255</v>
+        <v>687002.4444969253</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>687002.4444969255</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>687002.4444969253</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>687002.4444969255</v>
+        <v>687002.4444969253</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>687002.444496925</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609819.6535453054</v>
+        <v>687002.4444969253</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180687.3047541645</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="C2" t="n">
-        <v>180687.3047541645</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="D2" t="n">
-        <v>180687.3047541645</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="E2" t="n">
-        <v>180687.3047541645</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="F2" t="n">
-        <v>180687.3047541645</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="G2" t="n">
-        <v>180687.3047541645</v>
+        <v>203556.2798509408</v>
       </c>
       <c r="H2" t="n">
+        <v>203556.2798509408</v>
+      </c>
+      <c r="I2" t="n">
         <v>203556.2798509409</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>203556.2798509408</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>203556.2798509408</v>
+      </c>
+      <c r="L2" t="n">
         <v>203556.2798509409</v>
       </c>
-      <c r="K2" t="n">
-        <v>203556.2798509409</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>203556.2798509408</v>
       </c>
-      <c r="M2" t="n">
-        <v>203556.2798509409</v>
-      </c>
       <c r="N2" t="n">
-        <v>203556.2798509409</v>
+        <v>203556.2798509408</v>
       </c>
       <c r="O2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="P2" t="n">
-        <v>180687.3047541645</v>
+        <v>203556.2798509409</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>260219.3554198288</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656034</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3207027394317</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3207027394317</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3207027394316</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3207027394316</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3207027394316</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3207027394317</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="H4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="I4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="J4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="K4" t="n">
+        <v>548.8206074562065</v>
+      </c>
+      <c r="L4" t="n">
+        <v>548.8206074562065</v>
+      </c>
+      <c r="M4" t="n">
         <v>548.8206074562066</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>548.8206074562066</v>
-      </c>
-      <c r="M4" t="n">
-        <v>548.8206074562065</v>
-      </c>
-      <c r="N4" t="n">
-        <v>548.8206074562065</v>
       </c>
       <c r="O4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3207027394316</v>
+        <v>548.8206074562065</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87555.27921749302</v>
+        <v>-138050.033231472</v>
       </c>
       <c r="C6" t="n">
-        <v>110640.5267742519</v>
+        <v>122169.3221883569</v>
       </c>
       <c r="D6" t="n">
-        <v>110640.5267742519</v>
+        <v>122169.3221883569</v>
       </c>
       <c r="E6" t="n">
-        <v>144268.1267742519</v>
+        <v>155796.9221883569</v>
       </c>
       <c r="F6" t="n">
-        <v>144268.126774252</v>
+        <v>155796.9221883569</v>
       </c>
       <c r="G6" t="n">
-        <v>144268.126774252</v>
+        <v>155796.9221883568</v>
       </c>
       <c r="H6" t="n">
-        <v>105861.4899809528</v>
+        <v>155796.9221883568</v>
       </c>
       <c r="I6" t="n">
+        <v>155796.9221883569</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-47366.79092433819</v>
+      </c>
+      <c r="K6" t="n">
         <v>155796.9221883568</v>
       </c>
-      <c r="J6" t="n">
-        <v>1057.487822753428</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>155796.9221883569</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>155796.9221883568</v>
       </c>
-      <c r="M6" t="n">
-        <v>155796.9221883569</v>
-      </c>
       <c r="N6" t="n">
-        <v>155796.9221883569</v>
+        <v>155796.9221883568</v>
       </c>
       <c r="O6" t="n">
         <v>155796.9221883569</v>
       </c>
       <c r="P6" t="n">
-        <v>144268.1267742519</v>
+        <v>155796.9221883569</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,10 +34704,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>503.7020498768026</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34717,7 +34719,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34786,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O3" t="n">
-        <v>24.02725130588916</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34948,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
@@ -35024,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>247.8874524576771</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35179,7 +35181,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>5.39872490859157</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35419,7 +35421,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>349.6338154341907</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35428,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>381.6583337168698</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>484.6198681696869</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35902,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>180.451438245074</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,10 +36208,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268797</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>453.2152403831814</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>35.0500461102036</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36920,13 +36922,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37157,13 +37159,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729934</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37871,13 +37873,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>119.5613130890187</v>
+        <v>320.0552895810017</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38035,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>330.4341341043856</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862010.1842749009</v>
+        <v>857476.3611054035</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667317.432543015</v>
+        <v>1667317.432543014</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977804</v>
+        <v>7966425.477977806</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7943893.718553924</v>
+        <v>7943893.718553923</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>350.8194401968784</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -721,13 +721,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>169.0133141932866</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>177.7856699752782</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -907,10 +907,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>406.9953530729539</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>256.7115579699417</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>188.1792849248195</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>132.8202545531284</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>229.2671475085639</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1350,10 +1350,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1387,10 +1387,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>233.2385090293388</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>388.5622931376141</v>
       </c>
     </row>
     <row r="12">
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>131.6846499321094</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>225.9539230668699</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>66.68447052885355</v>
+        <v>34.19922407604374</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
@@ -1666,13 +1666,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>66.68447052885355</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>160.7823747629879</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -2098,10 +2098,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.7856699752783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>191.6541629312303</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>285.9123115428293</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2623,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>190.8841179244016</v>
+        <v>262.1609338023734</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>165.8714844395198</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>254.5440187867115</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2857,10 +2857,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>272.9248762547746</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>176.492541022383</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3037,13 +3037,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>389.6978180646915</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>233.2385090293388</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U34" t="n">
-        <v>194.9632162960288</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>198.9914102195233</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>32.11774844572039</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>37.10820264503684</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>195.6255244520054</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.44862458271852</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>179.4080122938798</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>159.3149947016328</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -3729,7 +3729,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>267.1933947908267</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3757,7 +3757,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>8.001551092386331</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3991,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>271.0092307840453</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>114.789077753388</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
@@ -4197,10 +4197,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>113.1667354347865</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779.3776796346942</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="C2" t="n">
-        <v>386.2021781376249</v>
+        <v>1725.726704223945</v>
       </c>
       <c r="D2" t="n">
-        <v>386.2021781376249</v>
+        <v>1340.285575440613</v>
       </c>
       <c r="E2" t="n">
-        <v>386.2021781376249</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F2" t="n">
-        <v>386.2021781376249</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G2" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>2460.189498140842</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V2" t="n">
-        <v>2118.082688844361</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.083653812648</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.36313442549</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="Y2" t="n">
-        <v>1179.872425346091</v>
+        <v>2080.089775129883</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C3" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D3" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E3" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G3" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J3" t="n">
-        <v>62.11912770411553</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K3" t="n">
-        <v>62.11912770411553</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L3" t="n">
-        <v>545.6852136024288</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="M3" t="n">
-        <v>1173.45686322911</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="N3" t="n">
-        <v>1223.947919817482</v>
+        <v>1949.449642343508</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>2465.969924934489</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q3" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R3" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S3" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T3" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V3" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W3" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X3" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y3" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4515,25 +4515,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660.213721337995</v>
+        <v>1261.250198616311</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.038219840925</v>
+        <v>1261.250198616311</v>
       </c>
       <c r="D5" t="n">
-        <v>881.5970910575932</v>
+        <v>875.809069832979</v>
       </c>
       <c r="E5" t="n">
-        <v>479.0135661741377</v>
+        <v>473.2255449495236</v>
       </c>
       <c r="F5" t="n">
-        <v>62.11912770411553</v>
+        <v>473.2255449495236</v>
       </c>
       <c r="G5" t="n">
         <v>62.11912770411553</v>
@@ -4591,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W5" t="n">
-        <v>2846.651781195734</v>
+        <v>2051.197549394652</v>
       </c>
       <c r="X5" t="n">
-        <v>2457.199176128791</v>
+        <v>1661.744944327708</v>
       </c>
       <c r="Y5" t="n">
-        <v>2060.708467049392</v>
+        <v>1661.744944327708</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>658.8001958221562</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O6" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4752,25 +4752,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>475.3112746701182</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>475.3112746701182</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5661502456679</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1687.93534806666</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="C8" t="n">
-        <v>1294.75984656959</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D8" t="n">
-        <v>1294.75984656959</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E8" t="n">
-        <v>892.1763216861347</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F8" t="n">
-        <v>475.2818832161124</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G8" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H8" t="n">
         <v>62.11912770411553</v>
@@ -4831,25 +4831,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2805.280956860839</v>
       </c>
       <c r="U8" t="n">
-        <v>3105.956385205776</v>
+        <v>2805.280956860839</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.956385205776</v>
+        <v>2805.280956860839</v>
       </c>
       <c r="W8" t="n">
-        <v>2874.373407924399</v>
+        <v>2805.280956860839</v>
       </c>
       <c r="X8" t="n">
-        <v>2484.920802857455</v>
+        <v>2415.828351793895</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.430093778056</v>
+        <v>2019.337642714496</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N9" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O9" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P9" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4986,19 +4986,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U10" t="n">
-        <v>115.6912334709294</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V10" t="n">
-        <v>62.11912770411553</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W10" t="n">
         <v>62.11912770411553</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2073.376476849992</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="C11" t="n">
-        <v>1680.200975352922</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="D11" t="n">
-        <v>1294.75984656959</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="E11" t="n">
-        <v>892.1763216861347</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F11" t="n">
-        <v>475.2818832161124</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W11" t="n">
-        <v>3105.956385205776</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X11" t="n">
-        <v>2870.361931640788</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="Y11" t="n">
-        <v>2473.871222561389</v>
+        <v>1354.596489027179</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.973980501895</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5232,19 +5232,19 @@
         <v>839.6651608782449</v>
       </c>
       <c r="U13" t="n">
-        <v>839.6651608782449</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V13" t="n">
-        <v>839.6651608782449</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>522.652680240431</v>
+        <v>1791.724684694517</v>
       </c>
       <c r="C14" t="n">
-        <v>129.4771787433615</v>
+        <v>1791.724684694517</v>
       </c>
       <c r="D14" t="n">
-        <v>62.11912770411553</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E14" t="n">
-        <v>62.11912770411553</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F14" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5305,25 +5305,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T14" t="n">
-        <v>2677.949313991765</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U14" t="n">
-        <v>2422.196584426364</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="V14" t="n">
-        <v>2080.089775129883</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="W14" t="n">
-        <v>1709.09074009817</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="X14" t="n">
-        <v>1319.638135031227</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="Y14" t="n">
-        <v>923.1474259518279</v>
+        <v>2192.219430405914</v>
       </c>
     </row>
     <row r="15">
@@ -5357,16 +5357,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5466,22 +5466,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>522.652680240431</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C17" t="n">
-        <v>129.4771787433615</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D17" t="n">
-        <v>62.11912770411553</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
         <v>62.11912770411553</v>
@@ -5542,25 +5542,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T17" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U17" t="n">
-        <v>2422.196584426364</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V17" t="n">
-        <v>2080.089775129883</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W17" t="n">
-        <v>1709.09074009817</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X17" t="n">
-        <v>1319.638135031227</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y17" t="n">
-        <v>923.1474259518279</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5703,22 +5703,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V19" t="n">
-        <v>697.5868050664922</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W19" t="n">
-        <v>414.2564029976698</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>180.1760807806529</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.1760807806529</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1517.002928181713</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C20" t="n">
-        <v>1517.002928181713</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D20" t="n">
-        <v>1517.002928181713</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5776,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V20" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W20" t="n">
-        <v>2306.950278960053</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X20" t="n">
-        <v>1917.49767389311</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y20" t="n">
-        <v>1917.49767389311</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5937,22 +5937,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>525.0310145964513</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U22" t="n">
-        <v>525.0310145964513</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V22" t="n">
-        <v>525.0310145964513</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W22" t="n">
-        <v>241.7006125276289</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>241.7006125276289</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
         <v>62.11912770411553</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1881.525411633559</v>
+        <v>1949.014036027722</v>
       </c>
       <c r="C23" t="n">
-        <v>1488.349910136489</v>
+        <v>1555.838534530652</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.75984656959</v>
+        <v>1170.39740574732</v>
       </c>
       <c r="E23" t="n">
-        <v>892.1763216861347</v>
+        <v>767.8138808638644</v>
       </c>
       <c r="F23" t="n">
-        <v>475.2818832161124</v>
+        <v>350.9194423938421</v>
       </c>
       <c r="G23" t="n">
         <v>62.11912770411553</v>
@@ -6013,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>3067.963471491298</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X23" t="n">
-        <v>2678.510866424355</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y23" t="n">
-        <v>2282.020157344956</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C24" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D24" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>1305.886481777555</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1933.658131404236</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>2589.436102614795</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R24" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S24" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T24" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U24" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V24" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W24" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X24" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y24" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.0961595639906</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>698.8910416299798</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
         <v>62.11912770411553</v>
@@ -6177,22 +6177,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V25" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1164.818808418026</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="C26" t="n">
-        <v>771.6433069209571</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D26" t="n">
-        <v>386.2021781376249</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E26" t="n">
-        <v>386.2021781376249</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F26" t="n">
-        <v>386.2021781376249</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
         <v>62.11912770411553</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2118.082688844361</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>1747.083653812648</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X26" t="n">
-        <v>1357.631048745705</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y26" t="n">
-        <v>1164.818808418026</v>
+        <v>2080.695721064319</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N27" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.24607037101</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
         <v>62.11912770411553</v>
@@ -6414,22 +6414,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1656.48203837997</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.3065368829</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="D29" t="n">
-        <v>877.865408099568</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="E29" t="n">
-        <v>475.2818832161124</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F29" t="n">
         <v>475.2818832161124</v>
@@ -6487,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2626.703053199792</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V29" t="n">
-        <v>2284.59624390331</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W29" t="n">
-        <v>1913.597208871598</v>
+        <v>1964.843469663571</v>
       </c>
       <c r="X29" t="n">
-        <v>1913.597208871598</v>
+        <v>1689.16177647693</v>
       </c>
       <c r="Y29" t="n">
-        <v>1913.597208871598</v>
+        <v>1292.671067397531</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6651,19 +6651,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>611.4288749521137</v>
+        <v>785.2908562836649</v>
       </c>
       <c r="V31" t="n">
-        <v>345.4495297729379</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="W31" t="n">
-        <v>62.11912770411553</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X31" t="n">
-        <v>62.11912770411553</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y31" t="n">
         <v>62.11912770411553</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2073.376476849992</v>
+        <v>1651.264356115844</v>
       </c>
       <c r="C32" t="n">
-        <v>1680.200975352922</v>
+        <v>1258.088854618775</v>
       </c>
       <c r="D32" t="n">
-        <v>1294.75984656959</v>
+        <v>872.6477258354423</v>
       </c>
       <c r="E32" t="n">
-        <v>892.1763216861347</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F32" t="n">
-        <v>475.2818832161124</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G32" t="n">
         <v>62.11912770411553</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="V32" t="n">
-        <v>3105.956385205776</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="W32" t="n">
-        <v>3105.956385205776</v>
+        <v>2441.211706894184</v>
       </c>
       <c r="X32" t="n">
-        <v>2870.361931640788</v>
+        <v>2051.759101827241</v>
       </c>
       <c r="Y32" t="n">
-        <v>2473.871222561389</v>
+        <v>2051.759101827241</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>2903.140301388325</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>2667.42124955656</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U34" t="n">
-        <v>2470.488707843399</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V34" t="n">
-        <v>2204.509362664224</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1524.144603804654</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C35" t="n">
-        <v>1524.144603804654</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D35" t="n">
-        <v>1138.703475021322</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E35" t="n">
-        <v>1138.703475021322</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6967,22 +6967,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U35" t="n">
-        <v>2626.703053199792</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V35" t="n">
-        <v>2284.59624390331</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W35" t="n">
-        <v>1913.597208871598</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X35" t="n">
-        <v>1524.144603804654</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y35" t="n">
-        <v>1524.144603804654</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1286.571845448837</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1803.092128039818</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2208.713496756216</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>729.485828028651</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C37" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>573.8527149311658</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>418.2939027903683</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>385.851732643176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
         <v>62.11912770411553</v>
@@ -7128,19 +7128,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W37" t="n">
-        <v>963.5661502456679</v>
+        <v>640.6443255127842</v>
       </c>
       <c r="X37" t="n">
-        <v>729.485828028651</v>
+        <v>640.6443255127842</v>
       </c>
       <c r="Y37" t="n">
-        <v>729.485828028651</v>
+        <v>417.5322643294276</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1326.874862298514</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C38" t="n">
-        <v>1326.874862298514</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D38" t="n">
-        <v>941.4337335151823</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>941.4337335151823</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>524.5392950451601</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7198,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>2715.942227706244</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>2460.189498140842</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V38" t="n">
-        <v>2118.082688844361</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W38" t="n">
-        <v>1747.083653812648</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X38" t="n">
-        <v>1357.631048745705</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y38" t="n">
-        <v>1326.874862298514</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>3105.956385205776</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T40" t="n">
-        <v>3105.956385205776</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="U40" t="n">
-        <v>3105.956385205776</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="V40" t="n">
-        <v>2945.03214813342</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W40" t="n">
-        <v>2661.701746064598</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X40" t="n">
-        <v>2427.62142384758</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1486.151690090176</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C41" t="n">
-        <v>1486.151690090176</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D41" t="n">
-        <v>1486.151690090176</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2844.462869050715</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U41" t="n">
-        <v>2588.710139485313</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V41" t="n">
-        <v>2246.603330188832</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W41" t="n">
-        <v>1875.604295157119</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X41" t="n">
-        <v>1486.151690090176</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y41" t="n">
-        <v>1486.151690090176</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>854.3695926684857</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>698.7364795710005</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>543.177667430203</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>385.851732643176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
         <v>62.11912770411553</v>
@@ -7599,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U43" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V43" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1548.519290316325</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C44" t="n">
-        <v>1155.343788819255</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D44" t="n">
-        <v>1155.343788819255</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>752.7602639357997</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>335.8658254657774</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
         <v>62.11912770411553</v>
@@ -7687,13 +7687,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>2734.957350174064</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X44" t="n">
-        <v>2345.50474510712</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y44" t="n">
-        <v>1949.014036027722</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="45">
@@ -7836,16 +7836,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>727.847098413902</v>
+        <v>847.6175868584073</v>
       </c>
       <c r="U46" t="n">
-        <v>442.408306655803</v>
+        <v>562.1787951003082</v>
       </c>
       <c r="V46" t="n">
-        <v>176.4289614766272</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="W46" t="n">
-        <v>62.11912770411553</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X46" t="n">
         <v>62.11912770411553</v>
@@ -8057,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>136.3731801151487</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8233,10 +8233,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>656.2283997181323</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8543,16 +8543,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8783,10 +8783,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>320.902235706038</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8935,7 +8935,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -8947,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9242,25 +9242,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9491,13 +9491,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9722,7 +9722,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>176.3345925796062</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9731,7 +9731,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9965,13 +9965,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>571.8744206036794</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10190,10 +10190,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10202,13 +10202,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10667,7 +10667,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10676,16 +10676,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>264.4640783312027</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10916,10 +10916,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11153,13 +11153,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>412.7428484698906</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>38.42430628522033</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>216.5447648229871</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,19 +22755,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>104.7987338652398</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22795,10 +22795,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>2.035774883922954</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>110.5774867114537</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>92.31781312331464</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23071,10 +23071,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>88.44534186304904</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23083,7 +23083,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>138.0218971728315</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,10 +23238,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>152.3195699869349</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>3.963508850990763</v>
       </c>
     </row>
     <row r="12">
@@ -23424,22 +23424,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>22.31857408728007</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>56.63048077364815</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>314.9022469666454</v>
+        <v>347.3874934194552</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>314.9022469666454</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.47955495861629</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23943,19 +23943,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>237.775314871633</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24031,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24177,25 +24177,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.0952705962448</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>189.9325545642687</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>123.1188164140475</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
@@ -24268,7 +24268,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24417,16 +24417,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24493,16 +24493,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>201.6416840642033</v>
+        <v>130.3648681862315</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>2.631582315150865</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24612,10 +24612,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24654,22 +24654,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.9457794675714</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>112.6332027614991</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24891,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>106.0918628181351</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8.859871569929396</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -24973,19 +24973,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>152.3195699869349</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25125,19 +25125,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U34" t="n">
-        <v>87.62118754448929</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>213.7340838657987</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>123.6349269934364</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25368,19 +25368,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>243.3888954030973</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>189.9325545642683</v>
       </c>
       <c r="Y38" t="n">
-        <v>362.0771774058863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25599,16 +25599,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>53.95384901956837</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>104.0045570257512</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>131.3642948437941</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>359.2874935890091</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>60.39847475326023</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25839,16 +25839,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>138.0218971728315</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25927,7 +25927,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>167.3303626133476</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>687002.4444969255</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>687002.4444969255</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>687002.4444969255</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687002.444496925</v>
+        <v>687002.4444969253</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>687002.4444969251</v>
+        <v>687002.4444969253</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>687002.4444969256</v>
+        <v>687002.4444969253</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>687002.4444969251</v>
+        <v>687002.4444969253</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>687002.4444969253</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>687002.4444969251</v>
+        <v>687002.4444969253</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>687002.4444969253</v>
+        <v>687002.4444969251</v>
       </c>
     </row>
   </sheetData>
@@ -26328,28 +26328,28 @@
         <v>203556.2798509409</v>
       </c>
       <c r="G2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="H2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="I2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="J2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="K2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="L2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="M2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="N2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="O2" t="n">
         <v>203556.2798509409</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="C4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="D4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="E4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="F4" t="n">
         <v>548.8206074562065</v>
-      </c>
-      <c r="E4" t="n">
-        <v>548.8206074562065</v>
-      </c>
-      <c r="F4" t="n">
-        <v>548.8206074562066</v>
       </c>
       <c r="G4" t="n">
         <v>548.8206074562066</v>
@@ -26444,10 +26444,10 @@
         <v>548.8206074562066</v>
       </c>
       <c r="K4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="L4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="M4" t="n">
         <v>548.8206074562066</v>
@@ -26459,7 +26459,7 @@
         <v>548.8206074562066</v>
       </c>
       <c r="P4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138050.033231472</v>
+        <v>-138581.1282633372</v>
       </c>
       <c r="C6" t="n">
-        <v>122169.3221883569</v>
+        <v>121638.2271564917</v>
       </c>
       <c r="D6" t="n">
-        <v>122169.3221883569</v>
+        <v>121638.2271564917</v>
       </c>
       <c r="E6" t="n">
-        <v>155796.9221883569</v>
+        <v>155265.8271564917</v>
       </c>
       <c r="F6" t="n">
-        <v>155796.9221883569</v>
+        <v>155265.8271564918</v>
       </c>
       <c r="G6" t="n">
-        <v>155796.9221883568</v>
+        <v>155265.8271564917</v>
       </c>
       <c r="H6" t="n">
-        <v>155796.9221883568</v>
+        <v>155265.8271564917</v>
       </c>
       <c r="I6" t="n">
-        <v>155796.9221883569</v>
+        <v>155265.8271564917</v>
       </c>
       <c r="J6" t="n">
-        <v>-47366.79092433819</v>
+        <v>-47897.8859562033</v>
       </c>
       <c r="K6" t="n">
-        <v>155796.9221883568</v>
+        <v>155265.8271564918</v>
       </c>
       <c r="L6" t="n">
-        <v>155796.9221883569</v>
+        <v>155265.8271564917</v>
       </c>
       <c r="M6" t="n">
-        <v>155796.9221883568</v>
+        <v>155265.8271564918</v>
       </c>
       <c r="N6" t="n">
-        <v>155796.9221883568</v>
+        <v>155265.8271564917</v>
       </c>
       <c r="O6" t="n">
-        <v>155796.9221883569</v>
+        <v>155265.8271564917</v>
       </c>
       <c r="P6" t="n">
-        <v>155796.9221883569</v>
+        <v>155265.8271564917</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.00106726098203</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34953,10 +34953,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>570.8562868639657</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35503,10 +35503,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>233.8188708867233</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35667,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36211,13 +36211,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>86.27424572268797</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36451,7 +36451,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36685,13 +36685,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>486.5023077495127</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36922,13 +36922,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37396,16 +37396,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.4759251752887</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37636,10 +37636,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37873,13 +37873,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>320.0552895810017</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
